--- a/workList.xlsx
+++ b/workList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laney\Documents\7100_fall2020\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laney\Documents\GitHub\viz-classical-music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8672F30-7ACD-4AA6-9613-55F0CFDF071C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E960246-51A7-45D5-9B7C-9E4D1E8273B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="310" windowWidth="10100" windowHeight="8260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>file</t>
   </si>
@@ -172,6 +172,276 @@
   </si>
   <si>
     <t>include</t>
+  </si>
+  <si>
+    <t>frescobaldi\canzoni</t>
+  </si>
+  <si>
+    <t>canzoni14.krn</t>
+  </si>
+  <si>
+    <t>gabrieli</t>
+  </si>
+  <si>
+    <t>mysterium.krn</t>
+  </si>
+  <si>
+    <t>gabrielia\contrafacta</t>
+  </si>
+  <si>
+    <t>coppini23.krn</t>
+  </si>
+  <si>
+    <t>gibbons</t>
+  </si>
+  <si>
+    <t>silverswan.krn</t>
+  </si>
+  <si>
+    <t>giovannelli\contrafacta</t>
+  </si>
+  <si>
+    <t>coppini15.krn</t>
+  </si>
+  <si>
+    <t>op46-4.krn</t>
+  </si>
+  <si>
+    <t>grieg\op46</t>
+  </si>
+  <si>
+    <t>handel</t>
+  </si>
+  <si>
+    <t>largo.krn</t>
+  </si>
+  <si>
+    <t>haydn\keyboard\uesonatas</t>
+  </si>
+  <si>
+    <t>sonata33-3.krn</t>
+  </si>
+  <si>
+    <t>menuet1.krn</t>
+  </si>
+  <si>
+    <t>haydnm\6menutets</t>
+  </si>
+  <si>
+    <t>hofmann</t>
+  </si>
+  <si>
+    <t>schelm.krn</t>
+  </si>
+  <si>
+    <t>hummel\op67</t>
+  </si>
+  <si>
+    <t>prelude67-14.krn</t>
+  </si>
+  <si>
+    <t>innsbruck.krn</t>
+  </si>
+  <si>
+    <t>isaac</t>
+  </si>
+  <si>
+    <t>065-spring-song.krn</t>
+  </si>
+  <si>
+    <t>josquin</t>
+  </si>
+  <si>
+    <t>grillo.krn</t>
+  </si>
+  <si>
+    <t>landini</t>
+  </si>
+  <si>
+    <t>echo.krn</t>
+  </si>
+  <si>
+    <t>lassus</t>
+  </si>
+  <si>
+    <t>matona.krn</t>
+  </si>
+  <si>
+    <t>liszt</t>
+  </si>
+  <si>
+    <t>ballade2.krn</t>
+  </si>
+  <si>
+    <t>op14-5.krn</t>
+  </si>
+  <si>
+    <t>macdowell\op14</t>
+  </si>
+  <si>
+    <t>de_bonte.krn</t>
+  </si>
+  <si>
+    <t>machaut\virelai</t>
+  </si>
+  <si>
+    <t>marenzio\contrafacta</t>
+  </si>
+  <si>
+    <t>coppini14.krn</t>
+  </si>
+  <si>
+    <t>sonata1823.krn</t>
+  </si>
+  <si>
+    <t>mendelssohn</t>
+  </si>
+  <si>
+    <t>laudate.krn</t>
+  </si>
+  <si>
+    <t>monteverdi</t>
+  </si>
+  <si>
+    <t>morales</t>
+  </si>
+  <si>
+    <t>morales.krn</t>
+  </si>
+  <si>
+    <t>morley</t>
+  </si>
+  <si>
+    <t>april.krn</t>
+  </si>
+  <si>
+    <t>mozart\piano\sonatina</t>
+  </si>
+  <si>
+    <t>viennese6-3.krn</t>
+  </si>
+  <si>
+    <t>promenade.krn</t>
+  </si>
+  <si>
+    <t>mussorgsky\exhibition</t>
+  </si>
+  <si>
+    <t>coppini19.krn</t>
+  </si>
+  <si>
+    <t>nanino\contrafacta</t>
+  </si>
+  <si>
+    <t>parce_domine.krn</t>
+  </si>
+  <si>
+    <t>obrecht</t>
+  </si>
+  <si>
+    <t>canon.krn</t>
+  </si>
+  <si>
+    <t>pachelbel</t>
+  </si>
+  <si>
+    <t>annun.krn</t>
+  </si>
+  <si>
+    <t>petrus</t>
+  </si>
+  <si>
+    <t>picchi\canzoni</t>
+  </si>
+  <si>
+    <t>section1A.krn</t>
+  </si>
+  <si>
+    <t>visions22-2.krn</t>
+  </si>
+  <si>
+    <t>prokofiev\op22</t>
+  </si>
+  <si>
+    <t>ravel</t>
+  </si>
+  <si>
+    <t>sonatine-1.krn</t>
+  </si>
+  <si>
+    <t>rore</t>
+  </si>
+  <si>
+    <t>sonno.krn</t>
+  </si>
+  <si>
+    <t>L012K478.krn</t>
+  </si>
+  <si>
+    <t>schubert\quartet</t>
+  </si>
+  <si>
+    <t>scarlatti\longo</t>
+  </si>
+  <si>
+    <t>quartet10-1.krn</t>
+  </si>
+  <si>
+    <t>op68no10.krn</t>
+  </si>
+  <si>
+    <t>schumann\op68</t>
+  </si>
+  <si>
+    <t>etude8-02.krn</t>
+  </si>
+  <si>
+    <t>scriabin\op8</t>
+  </si>
+  <si>
+    <t>sinding</t>
+  </si>
+  <si>
+    <t>spring.krn</t>
+  </si>
+  <si>
+    <t>sousa</t>
+  </si>
+  <si>
+    <t>hands-sea.krn</t>
+  </si>
+  <si>
+    <t>susato\danserye</t>
+  </si>
+  <si>
+    <t>reihentaenze-07.krn</t>
+  </si>
+  <si>
+    <t>kalenda_maya.krn</t>
+  </si>
+  <si>
+    <t>vaqueiras</t>
+  </si>
+  <si>
+    <t>coppini22.krn</t>
+  </si>
+  <si>
+    <t>vecchi\contrafacta</t>
+  </si>
+  <si>
+    <t>missa-quarti-toni-gloria.krn</t>
+  </si>
+  <si>
+    <t>victoria</t>
+  </si>
+  <si>
+    <t>webern\op27</t>
+  </si>
+  <si>
+    <t>variations-2.krn</t>
+  </si>
+  <si>
+    <t>ives\114songs</t>
   </si>
 </sst>
 </file>
@@ -498,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +811,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
@@ -569,7 +839,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -611,7 +881,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
@@ -733,6 +1003,501 @@
       </c>
       <c r="D16" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/workList.xlsx
+++ b/workList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laney\Documents\GitHub\viz-classical-music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E960246-51A7-45D5-9B7C-9E4D1E8273B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CC911C-65AA-4F9E-8CD8-9469C9238488}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="310" windowWidth="10100" windowHeight="8260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6740" yWindow="1600" windowWidth="10100" windowHeight="8260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -303,145 +303,145 @@
     <t>monteverdi</t>
   </si>
   <si>
+    <t>morley</t>
+  </si>
+  <si>
+    <t>april.krn</t>
+  </si>
+  <si>
+    <t>mozart\piano\sonatina</t>
+  </si>
+  <si>
+    <t>viennese6-3.krn</t>
+  </si>
+  <si>
+    <t>promenade.krn</t>
+  </si>
+  <si>
+    <t>mussorgsky\exhibition</t>
+  </si>
+  <si>
+    <t>coppini19.krn</t>
+  </si>
+  <si>
+    <t>nanino\contrafacta</t>
+  </si>
+  <si>
+    <t>parce_domine.krn</t>
+  </si>
+  <si>
+    <t>obrecht</t>
+  </si>
+  <si>
+    <t>canon.krn</t>
+  </si>
+  <si>
+    <t>pachelbel</t>
+  </si>
+  <si>
+    <t>annun.krn</t>
+  </si>
+  <si>
+    <t>petrus</t>
+  </si>
+  <si>
+    <t>picchi\canzoni</t>
+  </si>
+  <si>
+    <t>section1A.krn</t>
+  </si>
+  <si>
+    <t>visions22-2.krn</t>
+  </si>
+  <si>
+    <t>prokofiev\op22</t>
+  </si>
+  <si>
+    <t>ravel</t>
+  </si>
+  <si>
+    <t>sonatine-1.krn</t>
+  </si>
+  <si>
+    <t>rore</t>
+  </si>
+  <si>
+    <t>sonno.krn</t>
+  </si>
+  <si>
+    <t>L012K478.krn</t>
+  </si>
+  <si>
+    <t>schubert\quartet</t>
+  </si>
+  <si>
+    <t>scarlatti\longo</t>
+  </si>
+  <si>
+    <t>quartet10-1.krn</t>
+  </si>
+  <si>
+    <t>op68no10.krn</t>
+  </si>
+  <si>
+    <t>schumann\op68</t>
+  </si>
+  <si>
+    <t>etude8-02.krn</t>
+  </si>
+  <si>
+    <t>scriabin\op8</t>
+  </si>
+  <si>
+    <t>sinding</t>
+  </si>
+  <si>
+    <t>spring.krn</t>
+  </si>
+  <si>
+    <t>sousa</t>
+  </si>
+  <si>
+    <t>hands-sea.krn</t>
+  </si>
+  <si>
+    <t>susato\danserye</t>
+  </si>
+  <si>
+    <t>reihentaenze-07.krn</t>
+  </si>
+  <si>
+    <t>kalenda_maya.krn</t>
+  </si>
+  <si>
+    <t>vaqueiras</t>
+  </si>
+  <si>
+    <t>coppini22.krn</t>
+  </si>
+  <si>
+    <t>vecchi\contrafacta</t>
+  </si>
+  <si>
+    <t>missa-quarti-toni-gloria.krn</t>
+  </si>
+  <si>
+    <t>victoria</t>
+  </si>
+  <si>
+    <t>webern\op27</t>
+  </si>
+  <si>
+    <t>variations-2.krn</t>
+  </si>
+  <si>
+    <t>ives\114songs</t>
+  </si>
+  <si>
     <t>morales</t>
   </si>
   <si>
     <t>morales.krn</t>
-  </si>
-  <si>
-    <t>morley</t>
-  </si>
-  <si>
-    <t>april.krn</t>
-  </si>
-  <si>
-    <t>mozart\piano\sonatina</t>
-  </si>
-  <si>
-    <t>viennese6-3.krn</t>
-  </si>
-  <si>
-    <t>promenade.krn</t>
-  </si>
-  <si>
-    <t>mussorgsky\exhibition</t>
-  </si>
-  <si>
-    <t>coppini19.krn</t>
-  </si>
-  <si>
-    <t>nanino\contrafacta</t>
-  </si>
-  <si>
-    <t>parce_domine.krn</t>
-  </si>
-  <si>
-    <t>obrecht</t>
-  </si>
-  <si>
-    <t>canon.krn</t>
-  </si>
-  <si>
-    <t>pachelbel</t>
-  </si>
-  <si>
-    <t>annun.krn</t>
-  </si>
-  <si>
-    <t>petrus</t>
-  </si>
-  <si>
-    <t>picchi\canzoni</t>
-  </si>
-  <si>
-    <t>section1A.krn</t>
-  </si>
-  <si>
-    <t>visions22-2.krn</t>
-  </si>
-  <si>
-    <t>prokofiev\op22</t>
-  </si>
-  <si>
-    <t>ravel</t>
-  </si>
-  <si>
-    <t>sonatine-1.krn</t>
-  </si>
-  <si>
-    <t>rore</t>
-  </si>
-  <si>
-    <t>sonno.krn</t>
-  </si>
-  <si>
-    <t>L012K478.krn</t>
-  </si>
-  <si>
-    <t>schubert\quartet</t>
-  </si>
-  <si>
-    <t>scarlatti\longo</t>
-  </si>
-  <si>
-    <t>quartet10-1.krn</t>
-  </si>
-  <si>
-    <t>op68no10.krn</t>
-  </si>
-  <si>
-    <t>schumann\op68</t>
-  </si>
-  <si>
-    <t>etude8-02.krn</t>
-  </si>
-  <si>
-    <t>scriabin\op8</t>
-  </si>
-  <si>
-    <t>sinding</t>
-  </si>
-  <si>
-    <t>spring.krn</t>
-  </si>
-  <si>
-    <t>sousa</t>
-  </si>
-  <si>
-    <t>hands-sea.krn</t>
-  </si>
-  <si>
-    <t>susato\danserye</t>
-  </si>
-  <si>
-    <t>reihentaenze-07.krn</t>
-  </si>
-  <si>
-    <t>kalenda_maya.krn</t>
-  </si>
-  <si>
-    <t>vaqueiras</t>
-  </si>
-  <si>
-    <t>coppini22.krn</t>
-  </si>
-  <si>
-    <t>vecchi\contrafacta</t>
-  </si>
-  <si>
-    <t>missa-quarti-toni-gloria.krn</t>
-  </si>
-  <si>
-    <t>victoria</t>
-  </si>
-  <si>
-    <t>webern\op27</t>
-  </si>
-  <si>
-    <t>variations-2.krn</t>
-  </si>
-  <si>
-    <t>ives\114songs</t>
   </si>
 </sst>
 </file>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1142,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C29" t="s">
         <v>73</v>
@@ -1249,13 +1249,13 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -1263,10 +1263,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -1274,10 +1274,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -1285,10 +1285,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -1296,10 +1296,10 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -1307,10 +1307,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -1318,10 +1318,10 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -1329,10 +1329,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -1340,10 +1340,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -1351,10 +1351,10 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -1362,10 +1362,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -1373,10 +1373,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -1384,10 +1384,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -1395,10 +1395,10 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" t="s">
         <v>117</v>
-      </c>
-      <c r="C52" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -1406,10 +1406,10 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -1417,10 +1417,10 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -1428,10 +1428,10 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -1439,10 +1439,10 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -1450,10 +1450,10 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -1461,10 +1461,10 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -1472,10 +1472,10 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -1483,10 +1483,10 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -1494,10 +1494,10 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/workList.xlsx
+++ b/workList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laney\Documents\GitHub\viz-classical-music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC2BD58-47C5-48B2-A8AF-0E71C01594C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B84F30-5B65-4A92-850D-78B4B3DADA98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="1600" windowWidth="14400" windowHeight="8260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="153">
   <si>
     <t>file</t>
   </si>
@@ -294,9 +294,6 @@
     <t>victoria</t>
   </si>
   <si>
-    <t>variations-2.krn</t>
-  </si>
-  <si>
     <t>morales</t>
   </si>
   <si>
@@ -481,6 +478,12 @@
   </si>
   <si>
     <t>classify as strings or keys?</t>
+  </si>
+  <si>
+    <t>variations-2_edited.krn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added missing instrumentation (piano) to .krn spines. Instrumentation was in the AIN record but not recognized by music21.  </t>
   </si>
 </sst>
 </file>
@@ -810,7 +813,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -835,10 +838,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -860,16 +863,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -877,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -891,16 +894,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -908,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -936,16 +939,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -953,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -981,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -995,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -1065,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
@@ -1079,10 +1082,10 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1090,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
@@ -1112,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
@@ -1123,13 +1126,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1148,13 +1151,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1162,13 +1165,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" t="s">
         <v>144</v>
-      </c>
-      <c r="E25" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1187,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
         <v>48</v>
@@ -1209,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
         <v>51</v>
@@ -1245,10 +1248,10 @@
         <v>56</v>
       </c>
       <c r="C32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" t="s">
         <v>131</v>
-      </c>
-      <c r="E32" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1259,10 +1262,10 @@
         <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1270,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
         <v>58</v>
@@ -1281,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" t="s">
         <v>134</v>
       </c>
-      <c r="E35" t="s">
-        <v>135</v>
-      </c>
       <c r="F35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1298,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
         <v>59</v>
@@ -1312,10 +1315,10 @@
         <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1334,13 +1337,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
         <v>90</v>
       </c>
-      <c r="C39" t="s">
-        <v>91</v>
-      </c>
       <c r="E39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1359,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
         <v>65</v>
@@ -1370,13 +1373,13 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -1384,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C43" t="s">
         <v>66</v>
@@ -1428,10 +1431,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1439,13 +1442,13 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -1467,10 +1470,10 @@
         <v>75</v>
       </c>
       <c r="C50" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" t="s">
         <v>148</v>
-      </c>
-      <c r="E50" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -1478,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
         <v>76</v>
@@ -1489,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C52" t="s">
         <v>77</v>
@@ -1500,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C53" t="s">
         <v>78</v>
@@ -1511,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" t="s">
         <v>79</v>
@@ -1544,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
         <v>84</v>
@@ -1561,10 +1564,10 @@
         <v>85</v>
       </c>
       <c r="E58" t="s">
+        <v>149</v>
+      </c>
+      <c r="F58" t="s">
         <v>150</v>
-      </c>
-      <c r="F58" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -1572,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C59" t="s">
         <v>87</v>
@@ -1586,10 +1589,10 @@
         <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -1597,10 +1600,13 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C61" t="s">
-        <v>89</v>
+        <v>151</v>
+      </c>
+      <c r="E61" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/workList.xlsx
+++ b/workList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laney\Documents\GitHub\viz-classical-music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B84F30-5B65-4A92-850D-78B4B3DADA98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3FEB20-A47D-4572-8807-D8C4DC8B6A6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32385" yWindow="1755" windowWidth="17730" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="155">
   <si>
     <t>file</t>
   </si>
@@ -168,9 +168,6 @@
     <t>hofmann</t>
   </si>
   <si>
-    <t>schelm.krn</t>
-  </si>
-  <si>
     <t>prelude67-14.krn</t>
   </si>
   <si>
@@ -471,9 +468,6 @@
     <t>sonno_edited.krn</t>
   </si>
   <si>
-    <t>Added *Ivox to kern spines because instrumentation format was not recognized by music21 (e.g. *I"Bassus)</t>
-  </si>
-  <si>
     <t>This piece has a hurdy-gurdy, which is not recognized in music21</t>
   </si>
   <si>
@@ -484,6 +478,18 @@
   </si>
   <si>
     <t xml:space="preserve">Added missing instrumentation (piano) to .krn spines. Instrumentation was in the AIN record but not recognized by music21.  </t>
+  </si>
+  <si>
+    <t>schelm_edited.krn</t>
+  </si>
+  <si>
+    <t>No tempo marking. IMSLP version marked allegro. Added tempo marking of 130.</t>
+  </si>
+  <si>
+    <t>Added *Ivox to kern spines because instrumentation format was not recognized by music21 (e.g. *I"Bassus). Also added missing tempo marking of 60 based on IMSLP version.</t>
+  </si>
+  <si>
+    <t>Added missing instrumentation (vocals) to .krn spines.  No tempo marking, could not find one in IMSLP or choralwiki versions. Added tempo of 60.</t>
   </si>
 </sst>
 </file>
@@ -812,7 +818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
@@ -838,10 +844,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -863,16 +869,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -880,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -894,16 +900,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -911,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -939,16 +945,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -956,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -984,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -998,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -1068,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
@@ -1082,10 +1088,10 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1093,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
@@ -1115,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
@@ -1126,13 +1132,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1151,13 +1157,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1165,13 +1171,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" t="s">
         <v>143</v>
-      </c>
-      <c r="E25" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1182,7 +1188,10 @@
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>151</v>
+      </c>
+      <c r="E26" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1190,10 +1199,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1201,10 +1210,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1212,10 +1221,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1223,10 +1232,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
         <v>52</v>
-      </c>
-      <c r="C30" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1234,10 +1243,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
         <v>54</v>
-      </c>
-      <c r="C31" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1245,13 +1254,13 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" t="s">
         <v>130</v>
-      </c>
-      <c r="E32" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1259,13 +1268,13 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1273,10 +1282,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1284,16 +1293,16 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" t="s">
         <v>133</v>
       </c>
-      <c r="E35" t="s">
-        <v>134</v>
-      </c>
       <c r="F35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1301,10 +1310,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -1312,13 +1321,13 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1326,10 +1335,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1337,13 +1346,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s">
         <v>89</v>
       </c>
-      <c r="C39" t="s">
-        <v>90</v>
-      </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1351,10 +1360,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" t="s">
         <v>63</v>
-      </c>
-      <c r="C40" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1362,10 +1371,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -1373,13 +1382,13 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -1387,10 +1396,10 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -1398,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -1409,10 +1418,10 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -1420,10 +1429,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -1431,10 +1440,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1442,13 +1451,13 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -1456,10 +1465,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" t="s">
         <v>73</v>
-      </c>
-      <c r="C49" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -1467,13 +1476,13 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E50" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -1481,10 +1490,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -1492,10 +1501,10 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -1503,10 +1512,10 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -1514,10 +1523,10 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -1525,10 +1534,10 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" t="s">
         <v>80</v>
-      </c>
-      <c r="C55" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -1536,10 +1545,10 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" t="s">
         <v>82</v>
-      </c>
-      <c r="C56" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -1547,10 +1556,10 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -1558,16 +1567,16 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E58" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F58" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -1575,10 +1584,10 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -1586,13 +1595,13 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E60" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -1600,13 +1609,13 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E61" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/workList.xlsx
+++ b/workList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laney\Documents\GitHub\viz-classical-music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3FEB20-A47D-4572-8807-D8C4DC8B6A6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55250E16-C92A-440F-BA70-0DD0D6DC0BAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32385" yWindow="1755" windowWidth="17730" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="194">
   <si>
     <t>file</t>
   </si>
@@ -54,9 +54,6 @@
     <t>0LSMmwJL5Nym0L7Vxt2FeH</t>
   </si>
   <si>
-    <t>4l5zWNPyET6PqBhxQEyKgt</t>
-  </si>
-  <si>
     <t>sonata08-2.krn</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>bononcini</t>
   </si>
   <si>
-    <t>3j4FRAKjO93gupOyzvLjWM</t>
-  </si>
-  <si>
     <t>3xBWKAOczzfaLalXRzxntl</t>
   </si>
   <si>
@@ -297,9 +291,6 @@
     <t>morales.krn</t>
   </si>
   <si>
-    <t>notes</t>
-  </si>
-  <si>
     <t>02-fa_edited.krn</t>
   </si>
   <si>
@@ -490,6 +481,132 @@
   </si>
   <si>
     <t>Added missing instrumentation (vocals) to .krn spines.  No tempo marking, could not find one in IMSLP or choralwiki versions. Added tempo of 60.</t>
+  </si>
+  <si>
+    <t>14YeWgIwIqyFnHuOkd7fyP</t>
+  </si>
+  <si>
+    <t>5mwWvvJa6IubcMr4QzaFVu</t>
+  </si>
+  <si>
+    <t>2bAhKEE4IGbnMQ7CjejvAa</t>
+  </si>
+  <si>
+    <t>manual edits</t>
+  </si>
+  <si>
+    <t>spotify notes</t>
+  </si>
+  <si>
+    <t>could not find</t>
+  </si>
+  <si>
+    <t>1dyHU9CgeTWIvb2serBHzE</t>
+  </si>
+  <si>
+    <t>5Himheq9mKj4xIzHX98QG8</t>
+  </si>
+  <si>
+    <t>2PWqGi2e6aRgUFEVjXwhAz</t>
+  </si>
+  <si>
+    <t>0lH8Lk4RK9kCNbePfuAWtW</t>
+  </si>
+  <si>
+    <t>4DVFhjvbTQM6eEgbBtbOxr</t>
+  </si>
+  <si>
+    <t>7cgi6lRggiLAAzsuJOBBeW</t>
+  </si>
+  <si>
+    <t>0HygjPixQGHodkfLPZoJUu</t>
+  </si>
+  <si>
+    <t>7dZM6fr2RTl2n19c5zn806</t>
+  </si>
+  <si>
+    <t>5gOntuulJNWZmxKKGpdex2</t>
+  </si>
+  <si>
+    <t>1j8loJoVLZ8oqx9fuMpIQx</t>
+  </si>
+  <si>
+    <t>4DdF8wXqThIAGAqy14uYFd</t>
+  </si>
+  <si>
+    <t>4vHqUvAvYv7J1oqkrSdb2N</t>
+  </si>
+  <si>
+    <t>66YdFlycdbkBFKd264Ct3q</t>
+  </si>
+  <si>
+    <t>recording on spotify arranged for guitar</t>
+  </si>
+  <si>
+    <t>1BfSgfJ6tMvPJaJOwScQfR</t>
+  </si>
+  <si>
+    <t>5KrslNIRC9RvUKu6iShUOV</t>
+  </si>
+  <si>
+    <t>3idku07bpkQnxRV8Hwjkd8</t>
+  </si>
+  <si>
+    <t>3tyexD3uaQjoRjv45fS8sn</t>
+  </si>
+  <si>
+    <t>1WcB5prkfOAUiax4yP2SQK</t>
+  </si>
+  <si>
+    <t>1fqL5grXZiuInYM1IZnCf0</t>
+  </si>
+  <si>
+    <t>could not find this arrangement (harpsichord and violins)</t>
+  </si>
+  <si>
+    <t>1421vTKjauE0oN14BdI3sF</t>
+  </si>
+  <si>
+    <t>Excluded because of missing bar lines</t>
+  </si>
+  <si>
+    <t>2snH75Le0mjugG4oIQBqoh</t>
+  </si>
+  <si>
+    <t>7hCMOTIdI3BXMydy5OOpPq</t>
+  </si>
+  <si>
+    <t>1Uk2JkKHMSuEJ2TJvXf0ev</t>
+  </si>
+  <si>
+    <t>4xy7uVx76mYZXyr69Tc2pv</t>
+  </si>
+  <si>
+    <t>2DKdAlabFbVLaEIGIZFMSz</t>
+  </si>
+  <si>
+    <t>0I781xLiri7BjMLI439ghW</t>
+  </si>
+  <si>
+    <t>2G3lYsaQrzt9NgkxFtJ8cW</t>
+  </si>
+  <si>
+    <t>0MdMhVTsvPUme8Dba3Ur2V</t>
+  </si>
+  <si>
+    <t>0R8WlgDjFgK2JVHO15UkyP</t>
+  </si>
+  <si>
+    <t>could not find this arrangement</t>
+  </si>
+  <si>
+    <t>7nIAvGEJlQZh3EZrOeFUll</t>
+  </si>
+  <si>
+    <t>different instrumentation in spotify version</t>
+  </si>
+  <si>
+    <t>4ebDiFV2pvk4n9pPvI7uii</t>
   </si>
 </sst>
 </file>
@@ -816,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -830,12 +947,12 @@
     <col min="5" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -844,13 +961,16 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -864,29 +984,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -895,727 +1015,865 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D32" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="F35" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
         <v>107</v>
       </c>
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C36" t="s">
         <v>56</v>
       </c>
-      <c r="C33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="G36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="C37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E37" t="s">
         <v>133</v>
       </c>
-      <c r="F35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D42" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="D43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
         <v>111</v>
       </c>
-      <c r="C41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
         <v>112</v>
       </c>
-      <c r="C42" t="s">
-        <v>140</v>
-      </c>
-      <c r="E42" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" t="s">
+        <v>183</v>
+      </c>
+      <c r="E50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
         <v>113</v>
       </c>
-      <c r="C43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
         <v>114</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" t="s">
+        <v>191</v>
+      </c>
+      <c r="E58" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" t="s">
-        <v>141</v>
-      </c>
-      <c r="E48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="F58" t="s">
+        <v>145</v>
+      </c>
+      <c r="G58" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" t="s">
+        <v>84</v>
+      </c>
+      <c r="G59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60" t="s">
+        <v>151</v>
+      </c>
+      <c r="G60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" t="s">
         <v>146</v>
       </c>
-      <c r="E50" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58" t="s">
-        <v>85</v>
-      </c>
-      <c r="C58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D61" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" t="s">
         <v>147</v>
-      </c>
-      <c r="F58" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60" t="s">
-        <v>87</v>
-      </c>
-      <c r="C60" t="s">
-        <v>145</v>
-      </c>
-      <c r="E60" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" t="s">
-        <v>149</v>
-      </c>
-      <c r="E61" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
